--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220511_103831.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220511_103831.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="254">
   <si>
     <t>날짜</t>
   </si>
@@ -1133,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3765,32 +3765,6 @@
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102">
-        <v>100</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>170</v>
-      </c>
-      <c r="F102" t="s">
-        <v>220</v>
-      </c>
-      <c r="G102" t="s">
-        <v>239</v>
-      </c>
-      <c r="H102" t="s">
-        <v>239</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220511_103831.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220511_103831.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="253">
   <si>
     <t>날짜</t>
   </si>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>SSK</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>스윙</t>
@@ -1783,7 +1780,7 @@
         <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H25" t="s">
         <v>230</v>
@@ -1835,10 +1832,10 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1887,7 +1884,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H29" t="s">
         <v>230</v>
@@ -1913,10 +1910,10 @@
         <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1965,7 +1962,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H32" t="s">
         <v>230</v>
@@ -1991,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H33" t="s">
         <v>230</v>
@@ -2069,10 +2066,10 @@
         <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2147,7 +2144,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H39" t="s">
         <v>230</v>
@@ -2173,7 +2170,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H40" t="s">
         <v>230</v>
@@ -2225,10 +2222,10 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2251,7 +2248,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
         <v>230</v>
@@ -2303,7 +2300,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H45" t="s">
         <v>230</v>
@@ -2407,10 +2404,10 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2485,7 +2482,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
         <v>230</v>
@@ -2511,7 +2508,7 @@
         <v>193</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H53" t="s">
         <v>230</v>
@@ -2589,7 +2586,7 @@
         <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H56" t="s">
         <v>230</v>
@@ -2641,7 +2638,7 @@
         <v>185</v>
       </c>
       <c r="G58" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H58" t="s">
         <v>230</v>
@@ -2667,7 +2664,7 @@
         <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H59" t="s">
         <v>230</v>
@@ -2771,7 +2768,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H63" t="s">
         <v>230</v>
@@ -2797,7 +2794,7 @@
         <v>198</v>
       </c>
       <c r="G64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H64" t="s">
         <v>230</v>
@@ -2823,10 +2820,10 @@
         <v>199</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2875,7 +2872,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
         <v>230</v>
@@ -2979,10 +2976,10 @@
         <v>203</v>
       </c>
       <c r="G71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3005,7 +3002,7 @@
         <v>204</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H72" t="s">
         <v>230</v>
@@ -3031,7 +3028,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H73" t="s">
         <v>230</v>
@@ -3083,7 +3080,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H75" t="s">
         <v>230</v>
@@ -3109,7 +3106,7 @@
         <v>206</v>
       </c>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H76" t="s">
         <v>230</v>
@@ -3135,7 +3132,7 @@
         <v>207</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H77" t="s">
         <v>230</v>
@@ -3161,7 +3158,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
         <v>230</v>
@@ -3213,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H80" t="s">
         <v>230</v>
@@ -3265,10 +3262,10 @@
         <v>208</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3291,7 +3288,7 @@
         <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H83" t="s">
         <v>230</v>
@@ -3317,7 +3314,7 @@
         <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H84" t="s">
         <v>230</v>
@@ -3343,7 +3340,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H85" t="s">
         <v>230</v>
@@ -3369,7 +3366,7 @@
         <v>53</v>
       </c>
       <c r="G86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H86" t="s">
         <v>230</v>
@@ -3395,7 +3392,7 @@
         <v>95</v>
       </c>
       <c r="G87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H87" t="s">
         <v>230</v>
@@ -3499,7 +3496,7 @@
         <v>212</v>
       </c>
       <c r="G91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H91" t="s">
         <v>230</v>
@@ -3551,7 +3548,7 @@
         <v>214</v>
       </c>
       <c r="G93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H93" t="s">
         <v>230</v>
@@ -3603,7 +3600,7 @@
         <v>216</v>
       </c>
       <c r="G95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H95" t="s">
         <v>230</v>
@@ -3655,7 +3652,7 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H97" t="s">
         <v>230</v>
@@ -3733,10 +3730,10 @@
         <v>219</v>
       </c>
       <c r="G100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:8">
